--- a/ASD RESSOURCES FOLLOWUP.xlsx
+++ b/ASD RESSOURCES FOLLOWUP.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allst\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f0cf8ba9d15ebdd/Documentos/catalogos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBF5167-1BE2-43C7-BFB8-7484133ABF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{2FBF5167-1BE2-43C7-BFB8-7484133ABF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E58B7B36-57D0-481D-B666-D72B70E7A295}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE285061-26F7-4F88-BA98-15DAC40684DD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BE285061-26F7-4F88-BA98-15DAC40684DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="ARMASPEED" sheetId="3" r:id="rId2"/>
+    <sheet name="AKRAPOVIC" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,19 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
-  <si>
-    <t>Akrapovic</t>
-  </si>
-  <si>
-    <t>Eventuri</t>
-  </si>
-  <si>
-    <t>Scorpion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Racingline </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
   <si>
     <t>BRAND</t>
   </si>
@@ -60,12 +50,6 @@
   </si>
   <si>
     <t>SUPPLIERS DATA UPDATE FOLLOW UP</t>
-  </si>
-  <si>
-    <t>Tein</t>
-  </si>
-  <si>
-    <t>Dixcel</t>
   </si>
   <si>
     <t>CATALOGUE</t>
@@ -82,12 +66,51 @@
   <si>
     <t>ASD PRICE UPDATE</t>
   </si>
+  <si>
+    <t>P3 GOUCHE</t>
+  </si>
+  <si>
+    <t>AKRAPOVIC</t>
+  </si>
+  <si>
+    <t>EVENTURI</t>
+  </si>
+  <si>
+    <t>SCORPION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RACINGLINE </t>
+  </si>
+  <si>
+    <t>TEIN</t>
+  </si>
+  <si>
+    <t>DIXCEL</t>
+  </si>
+  <si>
+    <t>PRACWORK</t>
+  </si>
+  <si>
+    <t>ALPHA COMPETITION</t>
+  </si>
+  <si>
+    <t>MISHIMOTO</t>
+  </si>
+  <si>
+    <t>NOT IN CATALOGUE</t>
+  </si>
+  <si>
+    <t>ARMASPEED</t>
+  </si>
+  <si>
+    <t>ARMASPEED DATA UPDATE FOLLOW UP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +121,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -265,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,21 +307,54 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,33 +367,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,8 +385,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -644,238 +686,824 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BD1D7C-7376-4B8B-890F-772126646A54}">
-  <dimension ref="B1:J19"/>
+  <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1"/>
+    <col min="7" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="J5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45194</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45194</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45194</v>
+      </c>
+      <c r="G6" s="2">
+        <v>814</v>
+      </c>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>45194</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>45194</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45194</v>
-      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
+      <c r="I8" s="2"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="3">
         <v>45194</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3">
+        <v>45198</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
+      <c r="I9" s="2"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="3">
-        <v>45194</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>45209</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45209</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45217</v>
+      </c>
+      <c r="G10" s="2">
+        <v>328</v>
+      </c>
+      <c r="H10" s="2">
+        <f>156+19</f>
+        <v>175</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="14">
+        <v>45211</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45211</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45211</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45211</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45194</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45194</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45194</v>
+      </c>
+      <c r="G17" s="2">
+        <v>814</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>45194</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45194</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45198</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45209</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45209</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45217</v>
+      </c>
+      <c r="G21" s="2">
+        <v>328</v>
+      </c>
+      <c r="H21" s="2">
+        <f>156+19</f>
+        <v>175</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="14">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45211</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45211</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45211</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:B27">
+    <sortCondition ref="B18:B27"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A7CC0C-EA7B-4720-9E7F-D22EE3CD03E0}">
+  <dimension ref="B1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45219</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45194</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45194</v>
+      </c>
+      <c r="G6" s="2">
+        <v>814</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>45194</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -885,8 +1513,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -896,8 +1525,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -908,11 +1538,635 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="24"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:I4"/>
+    <mergeCell ref="B2:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39C6EB2-1DB2-4283-B18B-464056AE3D03}">
+  <dimension ref="B1:K34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45194</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45194</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45194</v>
+      </c>
+      <c r="G6" s="2">
+        <v>814</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>45194</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45194</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45198</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45209</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45209</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45217</v>
+      </c>
+      <c r="G10" s="2">
+        <v>328</v>
+      </c>
+      <c r="H10" s="2">
+        <f>156+19</f>
+        <v>175</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="14">
+        <v>45211</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45211</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45211</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45211</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45194</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45194</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45194</v>
+      </c>
+      <c r="G17" s="2">
+        <v>814</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>45194</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45194</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45198</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45209</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45209</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45217</v>
+      </c>
+      <c r="G21" s="2">
+        <v>328</v>
+      </c>
+      <c r="H21" s="2">
+        <f>156+19</f>
+        <v>175</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="14">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45211</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45211</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45211</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ASD RESSOURCES FOLLOWUP.xlsx
+++ b/ASD RESSOURCES FOLLOWUP.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f0cf8ba9d15ebdd/Documentos/catalogos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{2FBF5167-1BE2-43C7-BFB8-7484133ABF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E58B7B36-57D0-481D-B666-D72B70E7A295}"/>
+  <xr:revisionPtr revIDLastSave="301" documentId="13_ncr:1_{2FBF5167-1BE2-43C7-BFB8-7484133ABF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B5E8AFA-E988-45F2-A639-ECB30A7DDE12}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BE285061-26F7-4F88-BA98-15DAC40684DD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{BE285061-26F7-4F88-BA98-15DAC40684DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="ARMASPEED" sheetId="3" r:id="rId2"/>
-    <sheet name="AKRAPOVIC" sheetId="2" r:id="rId3"/>
+    <sheet name="WORKSHEET" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
   <si>
     <t>BRAND</t>
   </si>
@@ -105,6 +104,21 @@
   <si>
     <t>ARMASPEED DATA UPDATE FOLLOW UP</t>
   </si>
+  <si>
+    <t>QTD PRODUCTS</t>
+  </si>
+  <si>
+    <t>NEW REFERENCES</t>
+  </si>
+  <si>
+    <t>P3 GOUGE</t>
+  </si>
+  <si>
+    <t>RACINGLINE</t>
+  </si>
+  <si>
+    <t>TURBOSMART</t>
+  </si>
 </sst>
 </file>
 
@@ -149,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -292,11 +306,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,7 +468,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,10 +1440,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A7CC0C-EA7B-4720-9E7F-D22EE3CD03E0}">
-  <dimension ref="B1:K25"/>
+  <dimension ref="B1:L149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <pane xSplit="5115" ySplit="1650" topLeftCell="D94" activePane="bottomRight"/>
+      <selection activeCell="F43" sqref="F43"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="C114" sqref="C114:C125"/>
+      <selection pane="bottomRight" activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,14 +1457,14 @@
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+    <col min="6" max="7" width="17" customWidth="1"/>
+    <col min="8" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
@@ -1299,10 +1475,11 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -1311,10 +1488,11 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="21"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -1323,849 +1501,2017 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3">
-        <v>45219</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="38">
+        <v>45223</v>
+      </c>
+      <c r="E6" s="38">
+        <v>45229</v>
+      </c>
+      <c r="F6" s="38">
+        <v>45229</v>
+      </c>
+      <c r="G6" s="39">
+        <v>359</v>
+      </c>
+      <c r="H6" s="40">
+        <v>252</v>
+      </c>
+      <c r="I6" s="40">
+        <v>9</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="42"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="42"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="42"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="42"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="42"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="42"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="42"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="42"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="42"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="42"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="38">
         <v>45194</v>
       </c>
-      <c r="F6" s="3">
+      <c r="E18" s="38">
+        <v>45198</v>
+      </c>
+      <c r="F18" s="38">
+        <v>45198</v>
+      </c>
+      <c r="G18" s="39">
+        <v>814</v>
+      </c>
+      <c r="H18" s="40">
+        <v>814</v>
+      </c>
+      <c r="I18" s="40">
+        <v>0</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38">
+        <v>45198</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="28"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="27"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="27"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32"/>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="38">
+        <v>45221</v>
+      </c>
+      <c r="E30" s="38">
+        <v>45226</v>
+      </c>
+      <c r="F30" s="38">
+        <v>45226</v>
+      </c>
+      <c r="G30" s="39">
+        <v>2067</v>
+      </c>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="41"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="42"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="27"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="42"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="27"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="42"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="28"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="42"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="29"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="42"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="27"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="42"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="27"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="42"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="27"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="42"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="27"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="42"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="27"/>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="42"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="32"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="32"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="3">
         <v>45194</v>
       </c>
-      <c r="G6" s="2">
+      <c r="E42" s="3">
+        <v>45198</v>
+      </c>
+      <c r="F42" s="38">
+        <v>45198</v>
+      </c>
+      <c r="G42" s="39">
+        <v>155</v>
+      </c>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="41">
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="42"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="24">
+        <v>45208</v>
+      </c>
+      <c r="E43" s="46">
+        <v>45208</v>
+      </c>
+      <c r="F43" s="46">
+        <v>45208</v>
+      </c>
+      <c r="G43" s="25">
+        <v>156</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="46">
+        <v>45208</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="42"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="27"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="42"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="28"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="42"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="29"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="42"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="27"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="42"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="27"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="42"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="27"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="42"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="27"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="42"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="27"/>
+    </row>
+    <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="42"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="32"/>
+    </row>
+    <row r="53" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="44"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="32"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="3">
+        <v>45209</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45210</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G54" s="2">
+        <v>2224</v>
+      </c>
+      <c r="H54" s="2">
+        <v>327</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="3">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="42"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="27"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="42"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="27"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="42"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="28"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="42"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="29"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="42"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="27"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="42"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="27"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="42"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="27"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="42"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="27"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="42"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="27"/>
+    </row>
+    <row r="64" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="42"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="32"/>
+    </row>
+    <row r="65" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="44"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="32"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="38">
+        <v>45201</v>
+      </c>
+      <c r="E66" s="38">
+        <v>45203</v>
+      </c>
+      <c r="F66" s="38">
+        <v>45203</v>
+      </c>
+      <c r="G66" s="39">
+        <v>345</v>
+      </c>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="41">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="42"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="27"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="42"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="27"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="42"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="28"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="42"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="29"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="42"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="27"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="42"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="27"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="42"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="27"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="42"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="27"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="42"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="27"/>
+    </row>
+    <row r="76" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="42"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="32"/>
+    </row>
+    <row r="77" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="44"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="32"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="3">
+        <v>45210</v>
+      </c>
+      <c r="E78" s="3">
+        <v>45210</v>
+      </c>
+      <c r="F78" s="3">
+        <v>45210</v>
+      </c>
+      <c r="G78" s="39">
+        <v>60</v>
+      </c>
+      <c r="H78" s="40">
+        <v>60</v>
+      </c>
+      <c r="I78" s="40"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="41">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="42"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="27"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="42"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="27"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="42"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="28"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="42"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="29"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="42"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="27"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="42"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="27"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="42"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="27"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="42"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="27"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="42"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="27"/>
+    </row>
+    <row r="88" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="42"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="32"/>
+    </row>
+    <row r="89" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="44"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="32"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="38">
+        <v>45198</v>
+      </c>
+      <c r="E90" s="38">
+        <v>45201</v>
+      </c>
+      <c r="F90" s="38">
+        <v>45201</v>
+      </c>
+      <c r="G90" s="39">
+        <v>886</v>
+      </c>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="42"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="27"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="42"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="27"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="42"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="28"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="42"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="29"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="42"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="27"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="42"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="27"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="42"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="27"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="42"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="27"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="42"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="27"/>
+    </row>
+    <row r="100" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="42"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="32"/>
+    </row>
+    <row r="101" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="44"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
+      <c r="K101" s="32"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="38">
+        <v>45198</v>
+      </c>
+      <c r="E102" s="38">
+        <v>45197</v>
+      </c>
+      <c r="F102" s="38">
+        <v>45201</v>
+      </c>
+      <c r="G102" s="39">
+        <v>409</v>
+      </c>
+      <c r="H102" s="40">
+        <v>8</v>
+      </c>
+      <c r="I102" s="40"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="41">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="42"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="24">
+        <v>44850</v>
+      </c>
+      <c r="E103" s="24">
+        <v>44850</v>
+      </c>
+      <c r="F103" s="24">
+        <v>44850</v>
+      </c>
+      <c r="G103" s="25">
+        <v>419</v>
+      </c>
+      <c r="H103" s="25">
+        <v>10</v>
+      </c>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="24">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="42"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="27"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="42"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="28"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="42"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="29"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="42"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="27"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="42"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="27"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="42"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="27"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="42"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="27"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="42"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="27"/>
+    </row>
+    <row r="112" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="42"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="31"/>
+      <c r="K112" s="32"/>
+    </row>
+    <row r="113" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="44"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="31"/>
+      <c r="K113" s="32"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="38">
+        <v>45201</v>
+      </c>
+      <c r="E114" s="38">
+        <v>45223</v>
+      </c>
+      <c r="F114" s="38">
+        <v>45223</v>
+      </c>
+      <c r="G114" s="39">
+        <v>889</v>
+      </c>
+      <c r="H114" s="40">
+        <v>889</v>
+      </c>
+      <c r="I114" s="40"/>
+      <c r="J114" s="38"/>
+      <c r="K114" s="47"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="42"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="27"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="42"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="27"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="42"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="28"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="42"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="29"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="42"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="27"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="42"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="25"/>
+      <c r="K120" s="27"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="42"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="25"/>
+      <c r="K121" s="27"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="42"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="27"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="42"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="27"/>
+    </row>
+    <row r="124" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="42"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
+      <c r="J124" s="31"/>
+      <c r="K124" s="32"/>
+    </row>
+    <row r="125" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="44"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
+      <c r="J125" s="31"/>
+      <c r="K125" s="32"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126" s="38">
+        <v>45224</v>
+      </c>
+      <c r="E126" s="38">
+        <v>45229</v>
+      </c>
+      <c r="F126" s="38">
+        <v>45229</v>
+      </c>
+      <c r="G126" s="39">
+        <v>359</v>
+      </c>
+      <c r="H126" s="40">
+        <v>252</v>
+      </c>
+      <c r="I126" s="40">
+        <v>9</v>
+      </c>
+      <c r="J126" s="38"/>
+      <c r="K126" s="41"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="42"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="27"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" s="42"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="27"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="42"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="28"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="42"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="29"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="42"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="25"/>
+      <c r="K131" s="27"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="42"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="25"/>
+      <c r="K132" s="27"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="42"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="25"/>
+      <c r="K133" s="27"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="42"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="25"/>
+      <c r="K134" s="27"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="42"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="25"/>
+      <c r="K135" s="27"/>
+    </row>
+    <row r="136" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="42"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="31"/>
+      <c r="I136" s="31"/>
+      <c r="J136" s="31"/>
+      <c r="K136" s="32"/>
+    </row>
+    <row r="137" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="44"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
+      <c r="I137" s="31"/>
+      <c r="J137" s="31"/>
+      <c r="K137" s="32"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="3">
+        <v>45194</v>
+      </c>
+      <c r="E138" s="3">
+        <v>45194</v>
+      </c>
+      <c r="F138" s="3">
+        <v>45194</v>
+      </c>
+      <c r="G138" s="2">
         <v>814</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H138" s="2">
+        <v>814</v>
+      </c>
+      <c r="I138" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3">
+      <c r="J138" s="3"/>
+      <c r="K138" s="3">
         <v>45194</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="24"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="42"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="43"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="27"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="42"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="25"/>
+      <c r="K140" s="27"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="42"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="25"/>
+      <c r="K141" s="28"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="42"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="24"/>
+      <c r="K142" s="29"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="42"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="25"/>
+      <c r="K143" s="27"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="42"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="25"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="25"/>
+      <c r="K144" s="27"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="42"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="25"/>
+      <c r="K145" s="27"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" s="42"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="25"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="25"/>
+      <c r="K146" s="27"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="42"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="25"/>
+      <c r="K147" s="27"/>
+    </row>
+    <row r="148" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="42"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="31"/>
+      <c r="I148" s="31"/>
+      <c r="J148" s="31"/>
+      <c r="K148" s="32"/>
+    </row>
+    <row r="149" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="44"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="31"/>
+      <c r="I149" s="31"/>
+      <c r="J149" s="31"/>
+      <c r="K149" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:J4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39C6EB2-1DB2-4283-B18B-464056AE3D03}">
-  <dimension ref="B1:K34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45194</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45194</v>
-      </c>
-      <c r="F6" s="3">
-        <v>45194</v>
-      </c>
-      <c r="G6" s="2">
-        <v>814</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3">
-        <v>45194</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3">
-        <v>45194</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45198</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45209</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45209</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45217</v>
-      </c>
-      <c r="G10" s="2">
-        <v>328</v>
-      </c>
-      <c r="H10" s="2">
-        <f>156+19</f>
-        <v>175</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="14">
-        <v>45211</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3">
-        <v>45211</v>
-      </c>
-      <c r="E12" s="3">
-        <v>45211</v>
-      </c>
-      <c r="F12" s="3">
-        <v>45211</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3">
-        <v>45194</v>
-      </c>
-      <c r="E17" s="3">
-        <v>45194</v>
-      </c>
-      <c r="F17" s="3">
-        <v>45194</v>
-      </c>
-      <c r="G17" s="2">
-        <v>814</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3">
-        <v>45194</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3">
-        <v>45194</v>
-      </c>
-      <c r="E20" s="3">
-        <v>45198</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="3">
-        <v>45209</v>
-      </c>
-      <c r="E21" s="3">
-        <v>45209</v>
-      </c>
-      <c r="F21" s="3">
-        <v>45217</v>
-      </c>
-      <c r="G21" s="2">
-        <v>328</v>
-      </c>
-      <c r="H21" s="2">
-        <f>156+19</f>
-        <v>175</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="14">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="3">
-        <v>45211</v>
-      </c>
-      <c r="E23" s="3">
-        <v>45211</v>
-      </c>
-      <c r="F23" s="3">
-        <v>45211</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:J4"/>
+  <mergeCells count="25">
+    <mergeCell ref="B138:B149"/>
+    <mergeCell ref="C138:C149"/>
+    <mergeCell ref="B102:B113"/>
+    <mergeCell ref="C102:C113"/>
+    <mergeCell ref="B114:B125"/>
+    <mergeCell ref="C114:C125"/>
+    <mergeCell ref="B126:B137"/>
+    <mergeCell ref="C126:C137"/>
+    <mergeCell ref="B66:B77"/>
+    <mergeCell ref="C66:C77"/>
+    <mergeCell ref="B78:B89"/>
+    <mergeCell ref="C78:C89"/>
+    <mergeCell ref="B90:B101"/>
+    <mergeCell ref="C90:C101"/>
+    <mergeCell ref="B30:B41"/>
+    <mergeCell ref="C30:C41"/>
+    <mergeCell ref="B42:B53"/>
+    <mergeCell ref="C42:C53"/>
+    <mergeCell ref="B54:B65"/>
+    <mergeCell ref="C54:C65"/>
+    <mergeCell ref="B2:K4"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C6:C17"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="C18:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
